--- a/docs/analysis/Risikoanalyse.xlsx
+++ b/docs/analysis/Risikoanalyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="18870" windowHeight="13200" activeTab="2"/>
+    <workbookView xWindow="5100" yWindow="0" windowWidth="18870" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>Kunde erhält eine unpassende Empfehlung</t>
   </si>
   <si>
-    <t>Emotion Detector stuft Alter/Emotion falsch ein</t>
-  </si>
-  <si>
     <t>Kunde beschwert sich und schädigt möglicherweise den Ruf</t>
   </si>
   <si>
@@ -205,24 +202,15 @@
     <t>Elektronik liegt offen oder ist unzureichend isoliert</t>
   </si>
   <si>
-    <t>Hardware des Emotion Detector wurde beschädigt oder hat offene Stellen</t>
-  </si>
-  <si>
     <t>Bilder der Kunden werden gestohlen</t>
   </si>
   <si>
     <t>Schnittstellen sind unzureichend geschützt</t>
   </si>
   <si>
-    <t>Hardware des Emotion Detector wurde beschädigt</t>
-  </si>
-  <si>
     <t>Kamera nimmt nicht mehr auf</t>
   </si>
   <si>
-    <t>Emotion Detector fällt bis zu einer Woche aus</t>
-  </si>
-  <si>
     <t>Empfehlungen werden missbraucht</t>
   </si>
   <si>
@@ -284,6 +272,18 @@
   </si>
   <si>
     <t>Entschädigung anbieten und Modell nachtrainieren</t>
+  </si>
+  <si>
+    <t>ShireEye stuft Alter/Emotion falsch ein</t>
+  </si>
+  <si>
+    <t>ShireEye fällt bis zu einer Woche aus</t>
+  </si>
+  <si>
+    <t>Hardware des ShireEye wurde beschädigt</t>
+  </si>
+  <si>
+    <t>Hardware des ShireEye wurde beschädigt oder hat offene Stellen</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>46</v>
@@ -1169,181 +1169,181 @@
         <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H4" s="23">
         <v>3</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
